--- a/template_2020-2021.xlsx
+++ b/template_2020-2021.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Demande CTS 2019-2020" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,18 +25,6 @@
     <t xml:space="preserve">Demande de Crédit Temps Syndical 2020-2021</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Instructions :
-</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -51,7 +39,6 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -77,7 +64,6 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <u val="single"/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -95,46 +81,8 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Pour le code corps, 2 fichiers sont à disposition : « Codes.ods » qui liste les codes les plus courants et « Codes_Corps_complet.ods » qui liste la totalité des codes corps existants.
-Pour les militant-e-s qui cumulent décharge locale et fédérale/Solidaires, faire 2 lignes distinctes : une dans le tableau Décharges locales et une dans le tableau Décharges fédérales et Solidaires.
-</t>
+Pour les militant-e-s qui cumulent décharge locale et fédérale/Solidaires, faire 2 lignes distinctes : une dans le tableau Décharges locales et une dans le tableau Décharges fédérales et Solidaires.</t>
     </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ATTENTION : Nouvelles règles suite au CF de mai 2018 :
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- il n'est pas possible de demander un dépassement au-delà de 0,06 ETP ;
-- si la demande de CHS (CTS ponctuels) est supérieure ou égale à 10 % des ETP proposés, alors il ne peut pas y avoir de demande de dépassement</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Décharges locales</t>
@@ -179,7 +127,7 @@
     <t xml:space="preserve">Décharges fédérales et Solidaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Les services du Ministère nous un tableau de répartition des Crédits d'Heures Syndicales (CHS) par académie. Les syndicats situés dans une académie dans laquelle aucun CHS n'a été déclaré risquent de se voir opposer un refus s'ils veulent en utiliser. Chaque syndicat devrait demander au moins quelques demi-journées.</t>
+    <t xml:space="preserve">Les services du Ministère nous demandent un tableau de répartition des Crédits d'Heures Syndicales (CHS) par académie. Les syndicats situés dans une académie dans laquelle aucun CHS n'a été déclaré risquent de se voir opposer un refus s'ils veulent en utiliser. Chaque syndicat devrait demander au moins quelques demi-journées.</t>
   </si>
   <si>
     <t xml:space="preserve">Demande de Crédit d'Heures Syndicales (CHS)</t>
@@ -262,11 +210,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.########"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.########"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,12 +245,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <u val="single"/>
@@ -326,26 +268,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -474,7 +398,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,30 +425,26 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,7 +452,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,23 +460,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,11 +492,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,27 +512,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,7 +544,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,15 +552,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,23 +580,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,7 +613,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -693,10 +621,9 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="En-tête" xfId="20"/>
-    <cellStyle name="Normal_décharges 2008-2009.xls" xfId="21"/>
-    <cellStyle name="Résultat" xfId="22"/>
-    <cellStyle name="Résultat2" xfId="23"/>
-    <cellStyle name="Titre1" xfId="24"/>
+    <cellStyle name="Résultat" xfId="21"/>
+    <cellStyle name="Résultat2" xfId="22"/>
+    <cellStyle name="Titre1" xfId="23"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -768,23 +695,23 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +727,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="2" t="str">
         <f aca="false">"Syndicat : "&amp;A74</f>
         <v>Syndicat : 01</v>
@@ -808,10 +735,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -827,7 +754,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -841,7 +768,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -855,7 +782,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -869,7 +796,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -883,7 +810,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -897,7 +824,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -911,7 +838,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -925,7 +852,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -939,7 +866,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -953,7 +880,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -967,7 +894,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -981,7 +908,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -995,7 +922,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1009,7 +936,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1023,7 +950,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1037,10 +964,10 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="E21" s="6" t="str">
         <f aca="false">"ETP Proposés : "&amp;B74</f>
@@ -1049,7 +976,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +992,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1032,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1117,18 +1044,18 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="14" t="str">
-        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",F25="",G25="",H25="",I25="",J25=""),"",(IF(OR(B25="",C25="",D25="",E25="",F25="",G25="",H25="",I25="",J25=""),"Donnée manquante",((E25*60+F25)/(G25*60+H25)))))</f>
-        <v/>
-      </c>
-      <c r="L25" s="15" t="str">
+      <c r="K25" s="15" t="str">
+        <f aca="false">IF(AND(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"",(IF(OR(B25="",C25="",D25="",E25="",G25="",I25="",J25=""),"Donnée manquante",((E25*60+F25)/(G25*60+H25)))))</f>
+        <v/>
+      </c>
+      <c r="L25" s="16" t="str">
         <f aca="false">IF(OR(K25="Donnée manquante",K25=""),"",$D$74-SUM($K$25:K25,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1140,18 +1067,18 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="14" t="str">
-        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",F26="",G26="",H26="",I26="",J26=""),"",(IF(OR(B26="",C26="",D26="",E26="",F26="",G26="",H26="",I26="",J26=""),"Donnée manquante",((E26*60+F26)/(G26*60+H26)))))</f>
-        <v/>
-      </c>
-      <c r="L26" s="15" t="str">
+      <c r="K26" s="15" t="str">
+        <f aca="false">IF(AND(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"",(IF(OR(B26="",C26="",D26="",E26="",G26="",I26="",J26=""),"Donnée manquante",((E26*60+F26)/(G26*60+H26)))))</f>
+        <v/>
+      </c>
+      <c r="L26" s="16" t="str">
         <f aca="false">IF(OR(K26="Donnée manquante",K26=""),"",$D$74-SUM($K$25:K26,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1163,18 +1090,18 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="14" t="str">
-        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",F27="",G27="",H27="",I27="",J27=""),"",(IF(OR(B27="",C27="",D27="",E27="",F27="",G27="",H27="",I27="",J27=""),"Donnée manquante",((E27*60+F27)/(G27*60+H27)))))</f>
-        <v/>
-      </c>
-      <c r="L27" s="15" t="str">
+      <c r="K27" s="15" t="str">
+        <f aca="false">IF(AND(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"",(IF(OR(B27="",C27="",D27="",E27="",G27="",I27="",J27=""),"Donnée manquante",((E27*60+F27)/(G27*60+H27)))))</f>
+        <v/>
+      </c>
+      <c r="L27" s="16" t="str">
         <f aca="false">IF(OR(K27="Donnée manquante",K27=""),"",$D$74-SUM($K$25:K27,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1186,18 +1113,18 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="14" t="str">
-        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",F28="",G28="",H28="",I28="",J28=""),"",(IF(OR(B28="",C28="",D28="",E28="",F28="",G28="",H28="",I28="",J28=""),"Donnée manquante",((E28*60+F28)/(G28*60+H28)))))</f>
-        <v/>
-      </c>
-      <c r="L28" s="15" t="str">
+      <c r="K28" s="15" t="str">
+        <f aca="false">IF(AND(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"",(IF(OR(B28="",C28="",D28="",E28="",G28="",I28="",J28=""),"Donnée manquante",((E28*60+F28)/(G28*60+H28)))))</f>
+        <v/>
+      </c>
+      <c r="L28" s="16" t="str">
         <f aca="false">IF(OR(K28="Donnée manquante",K28=""),"",$D$74-SUM($K$25:K28,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1209,18 +1136,18 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="14" t="str">
-        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",F29="",G29="",H29="",I29="",J29=""),"",(IF(OR(B29="",C29="",D29="",E29="",F29="",G29="",H29="",I29="",J29=""),"Donnée manquante",((E29*60+F29)/(G29*60+H29)))))</f>
-        <v/>
-      </c>
-      <c r="L29" s="15" t="str">
+      <c r="K29" s="15" t="str">
+        <f aca="false">IF(AND(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"",(IF(OR(B29="",C29="",D29="",E29="",G29="",I29="",J29=""),"Donnée manquante",((E29*60+F29)/(G29*60+H29)))))</f>
+        <v/>
+      </c>
+      <c r="L29" s="16" t="str">
         <f aca="false">IF(OR(K29="Donnée manquante",K29=""),"",$D$74-SUM($K$25:K29,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1232,18 +1159,18 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="14" t="str">
-        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",F30="",G30="",H30="",I30="",J30=""),"",(IF(OR(B30="",C30="",D30="",E30="",F30="",G30="",H30="",I30="",J30=""),"Donnée manquante",((E30*60+F30)/(G30*60+H30)))))</f>
-        <v/>
-      </c>
-      <c r="L30" s="15" t="str">
+      <c r="K30" s="15" t="str">
+        <f aca="false">IF(AND(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"",(IF(OR(B30="",C30="",D30="",E30="",G30="",I30="",J30=""),"Donnée manquante",((E30*60+F30)/(G30*60+H30)))))</f>
+        <v/>
+      </c>
+      <c r="L30" s="16" t="str">
         <f aca="false">IF(OR(K30="Donnée manquante",K30=""),"",$D$74-SUM($K$25:K30,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1255,18 +1182,18 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="14" t="str">
-        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",F31="",G31="",H31="",I31="",J31=""),"",(IF(OR(B31="",C31="",D31="",E31="",F31="",G31="",H31="",I31="",J31=""),"Donnée manquante",((E31*60+F31)/(G31*60+H31)))))</f>
-        <v/>
-      </c>
-      <c r="L31" s="15" t="str">
+      <c r="K31" s="15" t="str">
+        <f aca="false">IF(AND(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"",(IF(OR(B31="",C31="",D31="",E31="",G31="",I31="",J31=""),"Donnée manquante",((E31*60+F31)/(G31*60+H31)))))</f>
+        <v/>
+      </c>
+      <c r="L31" s="16" t="str">
         <f aca="false">IF(OR(K31="Donnée manquante",K31=""),"",$D$74-SUM($K$25:K31,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1278,18 +1205,18 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="14" t="str">
-        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",F32="",G32="",H32="",I32="",J32=""),"",(IF(OR(B32="",C32="",D32="",E32="",F32="",G32="",H32="",I32="",J32=""),"Donnée manquante",((E32*60+F32)/(G32*60+H32)))))</f>
-        <v/>
-      </c>
-      <c r="L32" s="15" t="str">
+      <c r="K32" s="15" t="str">
+        <f aca="false">IF(AND(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"",(IF(OR(B32="",C32="",D32="",E32="",G32="",I32="",J32=""),"Donnée manquante",((E32*60+F32)/(G32*60+H32)))))</f>
+        <v/>
+      </c>
+      <c r="L32" s="16" t="str">
         <f aca="false">IF(OR(K32="Donnée manquante",K32=""),"",$D$74-SUM($K$25:K32,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1301,18 +1228,18 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="14" t="str">
-        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",F33="",G33="",H33="",I33="",J33=""),"",(IF(OR(B33="",C33="",D33="",E33="",F33="",G33="",H33="",I33="",J33=""),"Donnée manquante",((E33*60+F33)/(G33*60+H33)))))</f>
-        <v/>
-      </c>
-      <c r="L33" s="15" t="str">
+      <c r="K33" s="15" t="str">
+        <f aca="false">IF(AND(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"",(IF(OR(B33="",C33="",D33="",E33="",G33="",I33="",J33=""),"Donnée manquante",((E33*60+F33)/(G33*60+H33)))))</f>
+        <v/>
+      </c>
+      <c r="L33" s="16" t="str">
         <f aca="false">IF(OR(K33="Donnée manquante",K33=""),"",$D$74-SUM($K$25:K33,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1324,18 +1251,18 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="14" t="str">
-        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",F34="",G34="",H34="",I34="",J34=""),"",(IF(OR(B34="",C34="",D34="",E34="",F34="",G34="",H34="",I34="",J34=""),"Donnée manquante",((E34*60+F34)/(G34*60+H34)))))</f>
-        <v/>
-      </c>
-      <c r="L34" s="15" t="str">
+      <c r="K34" s="15" t="str">
+        <f aca="false">IF(AND(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"",(IF(OR(B34="",C34="",D34="",E34="",G34="",I34="",J34=""),"Donnée manquante",((E34*60+F34)/(G34*60+H34)))))</f>
+        <v/>
+      </c>
+      <c r="L34" s="16" t="str">
         <f aca="false">IF(OR(K34="Donnée manquante",K34=""),"",$D$74-SUM($K$25:K34,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1347,18 +1274,18 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="14" t="str">
-        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",F35="",G35="",H35="",I35="",J35=""),"",(IF(OR(B35="",C35="",D35="",E35="",F35="",G35="",H35="",I35="",J35=""),"Donnée manquante",((E35*60+F35)/(G35*60+H35)))))</f>
-        <v/>
-      </c>
-      <c r="L35" s="15" t="str">
+      <c r="K35" s="15" t="str">
+        <f aca="false">IF(AND(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"",(IF(OR(B35="",C35="",D35="",E35="",G35="",I35="",J35=""),"Donnée manquante",((E35*60+F35)/(G35*60+H35)))))</f>
+        <v/>
+      </c>
+      <c r="L35" s="16" t="str">
         <f aca="false">IF(OR(K35="Donnée manquante",K35=""),"",$D$74-SUM($K$25:K35,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1370,18 +1297,18 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="14" t="str">
-        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",F36="",G36="",H36="",I36="",J36=""),"",(IF(OR(B36="",C36="",D36="",E36="",F36="",G36="",H36="",I36="",J36=""),"Donnée manquante",((E36*60+F36)/(G36*60+H36)))))</f>
-        <v/>
-      </c>
-      <c r="L36" s="15" t="str">
+      <c r="K36" s="15" t="str">
+        <f aca="false">IF(AND(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"",(IF(OR(B36="",C36="",D36="",E36="",G36="",I36="",J36=""),"Donnée manquante",((E36*60+F36)/(G36*60+H36)))))</f>
+        <v/>
+      </c>
+      <c r="L36" s="16" t="str">
         <f aca="false">IF(OR(K36="Donnée manquante",K36=""),"",$D$74-SUM($K$25:K36,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1393,18 +1320,18 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="14" t="str">
-        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",F37="",G37="",H37="",I37="",J37=""),"",(IF(OR(B37="",C37="",D37="",E37="",F37="",G37="",H37="",I37="",J37=""),"Donnée manquante",((E37*60+F37)/(G37*60+H37)))))</f>
-        <v/>
-      </c>
-      <c r="L37" s="15" t="str">
+      <c r="K37" s="15" t="str">
+        <f aca="false">IF(AND(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"",(IF(OR(B37="",C37="",D37="",E37="",G37="",I37="",J37=""),"Donnée manquante",((E37*60+F37)/(G37*60+H37)))))</f>
+        <v/>
+      </c>
+      <c r="L37" s="16" t="str">
         <f aca="false">IF(OR(K37="Donnée manquante",K37=""),"",$D$74-SUM($K$25:K37,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1416,18 +1343,18 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="14" t="str">
-        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",F38="",G38="",H38="",I38="",J38=""),"",(IF(OR(B38="",C38="",D38="",E38="",F38="",G38="",H38="",I38="",J38=""),"Donnée manquante",((E38*60+F38)/(G38*60+H38)))))</f>
-        <v/>
-      </c>
-      <c r="L38" s="15" t="str">
+      <c r="K38" s="15" t="str">
+        <f aca="false">IF(AND(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"",(IF(OR(B38="",C38="",D38="",E38="",G38="",I38="",J38=""),"Donnée manquante",((E38*60+F38)/(G38*60+H38)))))</f>
+        <v/>
+      </c>
+      <c r="L38" s="16" t="str">
         <f aca="false">IF(OR(K38="Donnée manquante",K38=""),"",$D$74-SUM($K$25:K38,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1439,18 +1366,18 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="14" t="str">
-        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",F39="",G39="",H39="",I39="",J39=""),"",(IF(OR(B39="",C39="",D39="",E39="",F39="",G39="",H39="",I39="",J39=""),"Donnée manquante",((E39*60+F39)/(G39*60+H39)))))</f>
-        <v/>
-      </c>
-      <c r="L39" s="15" t="str">
+      <c r="K39" s="15" t="str">
+        <f aca="false">IF(AND(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"",(IF(OR(B39="",C39="",D39="",E39="",G39="",I39="",J39=""),"Donnée manquante",((E39*60+F39)/(G39*60+H39)))))</f>
+        <v/>
+      </c>
+      <c r="L39" s="16" t="str">
         <f aca="false">IF(OR(K39="Donnée manquante",K39=""),"",$D$74-SUM($K$25:K39,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1462,18 +1389,18 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="14" t="str">
-        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",F40="",G40="",H40="",I40="",J40=""),"",(IF(OR(B40="",C40="",D40="",E40="",F40="",G40="",H40="",I40="",J40=""),"Donnée manquante",((E40*60+F40)/(G40*60+H40)))))</f>
-        <v/>
-      </c>
-      <c r="L40" s="15" t="str">
+      <c r="K40" s="15" t="str">
+        <f aca="false">IF(AND(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"",(IF(OR(B40="",C40="",D40="",E40="",G40="",I40="",J40=""),"Donnée manquante",((E40*60+F40)/(G40*60+H40)))))</f>
+        <v/>
+      </c>
+      <c r="L40" s="16" t="str">
         <f aca="false">IF(OR(K40="Donnée manquante",K40=""),"",$D$74-SUM($K$25:K40,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1485,18 +1412,18 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="14" t="str">
-        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",F41="",G41="",H41="",I41="",J41=""),"",(IF(OR(B41="",C41="",D41="",E41="",F41="",G41="",H41="",I41="",J41=""),"Donnée manquante",((E41*60+F41)/(G41*60+H41)))))</f>
-        <v/>
-      </c>
-      <c r="L41" s="15" t="str">
+      <c r="K41" s="15" t="str">
+        <f aca="false">IF(AND(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"",(IF(OR(B41="",C41="",D41="",E41="",G41="",I41="",J41=""),"Donnée manquante",((E41*60+F41)/(G41*60+H41)))))</f>
+        <v/>
+      </c>
+      <c r="L41" s="16" t="str">
         <f aca="false">IF(OR(K41="Donnée manquante",K41=""),"",$D$74-SUM($K$25:K41,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1508,18 +1435,18 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="14" t="str">
-        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",F42="",G42="",H42="",I42="",J42=""),"",(IF(OR(B42="",C42="",D42="",E42="",F42="",G42="",H42="",I42="",J42=""),"Donnée manquante",((E42*60+F42)/(G42*60+H42)))))</f>
-        <v/>
-      </c>
-      <c r="L42" s="15" t="str">
+      <c r="K42" s="15" t="str">
+        <f aca="false">IF(AND(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"",(IF(OR(B42="",C42="",D42="",E42="",G42="",I42="",J42=""),"Donnée manquante",((E42*60+F42)/(G42*60+H42)))))</f>
+        <v/>
+      </c>
+      <c r="L42" s="16" t="str">
         <f aca="false">IF(OR(K42="Donnée manquante",K42=""),"",$D$74-SUM($K$25:K42,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1531,57 +1458,57 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="14" t="str">
-        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",F43="",G43="",H43="",I43="",J43=""),"",(IF(OR(B43="",C43="",D43="",E43="",F43="",G43="",H43="",I43="",J43=""),"Donnée manquante",((E43*60+F43)/(G43*60+H43)))))</f>
-        <v/>
-      </c>
-      <c r="L43" s="15" t="str">
+      <c r="K43" s="15" t="str">
+        <f aca="false">IF(AND(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"",(IF(OR(B43="",C43="",D43="",E43="",G43="",I43="",J43=""),"Donnée manquante",((E43*60+F43)/(G43*60+H43)))))</f>
+        <v/>
+      </c>
+      <c r="L43" s="16" t="str">
         <f aca="false">IF(OR(K43="Donnée manquante",K43=""),"",$D$74-SUM($K$25:K43,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="str">
-        <f aca="false">$A$74</f>
-        <v>01</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18" t="str">
-        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",F44="",G44="",H44="",I44="",J44=""),"",(IF(OR(B44="",C44="",D44="",E44="",F44="",G44="",H44="",I44="",J44=""),"Donnée manquante",((E44*60+F44)/(G44*60+H44)))))</f>
-        <v/>
-      </c>
-      <c r="L44" s="19" t="str">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="str">
+        <f aca="false">$A$74</f>
+        <v>01</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="15" t="str">
+        <f aca="false">IF(AND(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"",(IF(OR(B44="",C44="",D44="",E44="",G44="",I44="",J44=""),"Donnée manquante",((E44*60+F44)/(G44*60+H44)))))</f>
+        <v/>
+      </c>
+      <c r="L44" s="20" t="str">
         <f aca="false">IF(OR(K44="Donnée manquante",K44=""),"",$D$74-SUM($K$25:K44,$C$59))</f>
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>3</v>
       </c>
@@ -1615,9 +1542,9 @@
       <c r="K47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="22"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L47" s="23"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1631,12 +1558,12 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="15" t="str">
+      <c r="K48" s="16" t="str">
         <f aca="false">IF(AND(B48="",C48="",D48="",E48="",F48="",G48="",H48="",I48="",J48=""),"",(IF(OR(B48="",C48="",D48="",E48="",F48="",G48="",H48="",I48="",J48=""),"Donnée manquante",((E48*60+F48)/(G48*60+H48)))))</f>
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1650,12 +1577,12 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="15" t="str">
+      <c r="K49" s="16" t="str">
         <f aca="false">IF(AND(B49="",C49="",D49="",E49="",F49="",G49="",H49="",I49="",J49=""),"",(IF(OR(B49="",C49="",D49="",E49="",F49="",G49="",H49="",I49="",J49=""),"Donnée manquante",((E49*60+F49)/(G49*60+H49)))))</f>
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1669,12 +1596,12 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="15" t="str">
+      <c r="K50" s="16" t="str">
         <f aca="false">IF(AND(B50="",C50="",D50="",E50="",F50="",G50="",H50="",I50="",J50=""),"",(IF(OR(B50="",C50="",D50="",E50="",F50="",G50="",H50="",I50="",J50=""),"Donnée manquante",((E50*60+F50)/(G50*60+H50)))))</f>
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1688,12 +1615,12 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="15" t="str">
+      <c r="K51" s="16" t="str">
         <f aca="false">IF(AND(B51="",C51="",D51="",E51="",F51="",G51="",H51="",I51="",J51=""),"",(IF(OR(B51="",C51="",D51="",E51="",F51="",G51="",H51="",I51="",J51=""),"Donnée manquante",((E51*60+F51)/(G51*60+H51)))))</f>
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1707,12 +1634,12 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="15" t="str">
+      <c r="K52" s="16" t="str">
         <f aca="false">IF(AND(B52="",C52="",D52="",E52="",F52="",G52="",H52="",I52="",J52=""),"",(IF(OR(B52="",C52="",D52="",E52="",F52="",G52="",H52="",I52="",J52=""),"Donnée manquante",((E52*60+F52)/(G52*60+H52)))))</f>
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1726,12 +1653,12 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="15" t="str">
+      <c r="K53" s="16" t="str">
         <f aca="false">IF(AND(B53="",C53="",D53="",E53="",F53="",G53="",H53="",I53="",J53=""),"",(IF(OR(B53="",C53="",D53="",E53="",F53="",G53="",H53="",I53="",J53=""),"Donnée manquante",((E53*60+F53)/(G53*60+H53)))))</f>
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1745,56 +1672,56 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="15" t="str">
+      <c r="K54" s="16" t="str">
         <f aca="false">IF(AND(B54="",C54="",D54="",E54="",F54="",G54="",H54="",I54="",J54=""),"",(IF(OR(B54="",C54="",D54="",E54="",F54="",G54="",H54="",I54="",J54=""),"Donnée manquante",((E54*60+F54)/(G54*60+H54)))))</f>
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="str">
-        <f aca="false">$A$74</f>
-        <v>01</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="19" t="str">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="str">
+        <f aca="false">$A$74</f>
+        <v>01</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="20" t="str">
         <f aca="false">IF(AND(B55="",C55="",D55="",E55="",F55="",G55="",H55="",I55="",J55=""),"",(IF(OR(B55="",C55="",D55="",E55="",F55="",G55="",H55="",I55="",J55=""),"Donnée manquante",((E55*60+F55)/(G55*60+H55)))))</f>
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D56" s="23" t="s">
+    <row r="56" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D56" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="s">
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
@@ -1804,179 +1731,174 @@
       <c r="C58" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25" t="n">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26" t="n">
         <f aca="false">C59*1607/7</f>
         <v>0</v>
       </c>
-      <c r="C59" s="26" t="n">
+      <c r="C59" s="27" t="n">
         <f aca="false">A59*3.5/1607</f>
         <v>0</v>
       </c>
-      <c r="D59" s="26" t="n">
-        <f aca="false">IF(C59&lt;&gt;0,IF(C59&gt;=B74*0.1,"Demande de dépassement impossible","Dépassement possible jusqu’à 0,06 ETP"))</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="27" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-    </row>
-    <row r="63" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="29" t="s">
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30" t="s">
+      <c r="E63" s="30"/>
+      <c r="F63" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="s">
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="35" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="36" t="n">
+      <c r="B69" s="36"/>
+      <c r="C69" s="37" t="n">
         <f aca="false">SUM(C64:C67)</f>
         <v>0</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36" t="n">
+      <c r="E69" s="36"/>
+      <c r="F69" s="37" t="n">
         <f aca="false">SUM(F64:F67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37" t="s">
+    <row r="71" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -1993,8 +1915,8 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38"/>
+    <row r="73" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="39"/>
       <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
@@ -2013,58 +1935,56 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39" t="s">
+    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="18" t="n">
+      <c r="B74" s="41" t="n">
         <v>0.531</v>
       </c>
-      <c r="C74" s="18" t="n">
+      <c r="C74" s="41" t="n">
         <f aca="false">F69-C69</f>
         <v>0</v>
       </c>
-      <c r="D74" s="18" t="n">
+      <c r="D74" s="41" t="n">
         <f aca="false">B74+C74</f>
         <v>0.531</v>
       </c>
-      <c r="E74" s="18" t="n">
+      <c r="E74" s="41" t="n">
         <f aca="false">SUM(K25:K44)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="18" t="n">
+      <c r="F74" s="41" t="n">
         <f aca="false">C59</f>
         <v>0</v>
       </c>
-      <c r="G74" s="40" t="str">
+      <c r="G74" s="42" t="str">
         <f aca="false">IF(SUM(E74:F74)&gt;D74,"Vous dépassez de "&amp;ROUND((SUM(E74:F74)-D74),3)&amp;" ETP",IF(SUM(E74:F74)&lt;=D74,"Vous rendez "&amp;ABS(ROUND(SUM(E74:F74)-D74,3))&amp;" ETP","Erreur"))</f>
         <v>Vous rendez 0,531 ETP</v>
       </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40" t="str">
-        <f aca="false">IF(E74+F74&gt;D74+0.06,"Règles fédérales outrepassées","Règles fédérales respectées")</f>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42" t="str">
+        <f aca="false">IF(E74+F74&gt;D74,"Règles fédérales outrepassées","Règles fédérales respectées")</f>
         <v>Règles fédérales respectées</v>
       </c>
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="42"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11"/>
     </row>
-    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="ec78" objects="true" scenarios="true"/>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A4:L19"/>
@@ -2073,7 +1993,6 @@
     <mergeCell ref="A46:K46"/>
     <mergeCell ref="D56:J58"/>
     <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D59:E59"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="G61:K67"/>
     <mergeCell ref="A62:C62"/>
@@ -2098,11 +2017,94 @@
     <mergeCell ref="G72:H73"/>
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G76:J77"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J25:J44" type="textLength">
-      <formula1>8</formula1>
+  <dataValidations count="22">
+    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J26:J44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Un code corps comprend trois chiffres." errorTitle="Mauvais code corps" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I25:I44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I25,"[0-9]{3}"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Insérez entre 0 et 59 minutes." errorTitle="Minute !" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F25:F44" type="custom">
+      <formula1>AND(F25&gt;=0,F25&lt;60)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Insérez des minutes, entre 0 et 59." errorTitle="Minute !" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H25:H44" type="custom">
+      <formula1>AND(H25&gt;=0,H25&lt;60)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="L'ORS hebdomadaire la plus petite est 15 heures pour les enseignant-es.&#10;Pour les autres agent-es, l'ORS est de 1607 heures, temps partiel ou pas." errorTitle="ORS" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G25:G44" type="custom">
+      <formula1>AND(G25&gt;=15,G25&lt;=1607)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Pas plus de 803 heures, on ne dépasse pas le 0,5 ETP." errorTitle="Entrez un nombre d'heures" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E25:E44" type="custom">
+      <formula1>AND(E25&gt;=0,E25&lt;804)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="- Pas d'espace qui traîne au début ou à la fin&#10;- pas de point qui traîne&#10;- pas de tiret&#10;- les caractères en majuscule non accentuée" errorTitle="MAJUSCULES on a dit !" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D25:D44" type="custom">
+      <formula1>AND(NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D25," $"))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D25,"^ "))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D25,"[a-z]|[ËÊÉÀÈÖ-_\.]" ))))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="- pas d'espace qui traîne en début ou fin ;&#10;- pas de tiret ou de point.&#10;" errorTitle="Pas d'espace n'importe où, pas de tiret" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C25:C44" type="custom">
+      <formula1>AND(NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25," $"))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25,"^ "))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C25,"[ËÊÉÀÈÖ_-\.]" ))))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="C'est “M.” ou “Mme”. &#10;Pas d'espace dans tous les sens, pas d’abbréviation bizarre." errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B25:B44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(B25,"M\.|Mme"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A59" type="whole">
+      <formula1>-1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C64:C67 F64:F67" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J25" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="C’est “M.” ou “Mme”. Pas d’abbérviation étrange." errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B48:B55" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(B48,"M\.|Mme"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Saisie en majuscule&#10;Pas d'espace en début ou fin de saisie&#10;Pas de point&#10;Pas de tiret&#10;Pas de majuscule accentué" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D48:D55" type="custom">
+      <formula1>AND(NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D48," $"))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D48,"^ "))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(D48,"[a-z]|[ËÊÉÀÈÖ-_\.]" ))))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Pas d'espace en début ou fin de saisie&#10;Pas de majuscule accentuée&#10;Pas de point" errorTitle="Mauvaise saisie" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C48:C55" type="custom">
+      <formula1>AND(NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C48," $"))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C48,"^ "))),NOT(ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(C48,"[ËÊÉÀÈÖ_-\.]" ))))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Il faut saisir un nombre entre 0 et 804" errorTitle="Mi-temps max" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E48:E55" type="custom">
+      <formula1>AND(E48&gt;=0,E48&lt;804)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Des minutes, entre 0 et 59" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F48:F55" type="custom">
+      <formula1>AND(F48&gt;=0,F48&lt;60)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="L’ORS la plus faible pour les profs est de 15 heures.&#10;Pour les personnels non-enseignants, quelle que soit la quotité de service, la décharge est calculée sur 1607 heures annuelles ou 35 heures semaines." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G48:G55" type="custom">
+      <formula1>AND(G48&gt;=15,G48&lt;=1607)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Saisissez un nombre de minutes, donc pas plus de 59." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H48:H55" type="custom">
+      <formula1>AND(H48&gt;=0,H48&lt;60)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Un code corps comprend trois chiffres." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I48:I55" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I48,"[0-9]{3}"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Un RNE comprend 7 chiffres et une lettre en majuscule." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J48:J55" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J48,"^[0-9]{7}[A-Z]$"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Votre saisie doit correspondre à un nommage bien précis du syndicat du style &#10;Champagne-Ardennes (51+08+52+10)" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A64:B67 D64:E67" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(A64,"^[A-Z].* \(.*\)$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/template_2020-2021.xlsx
+++ b/template_2020-2021.xlsx
@@ -445,7 +445,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -485,7 +485,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -505,7 +505,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -597,7 +597,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -695,12 +695,13 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.55"/>
@@ -727,7 +728,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="2" t="str">
         <f aca="false">"Syndicat : "&amp;A74</f>
         <v>Syndicat : 01</v>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="L47" s="23"/>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1563,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1582,7 +1583,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1601,7 +1602,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1620,7 +1621,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1639,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1658,7 +1659,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1677,7 +1678,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="str">
         <f aca="false">$A$74</f>
         <v>01</v>
@@ -1935,7 +1936,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="40" t="s">
         <v>40</v>
       </c>

--- a/template_2020-2021.xlsx
+++ b/template_2020-2021.xlsx
@@ -696,10 +696,10 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.45"/>
@@ -2020,10 +2020,6 @@
     <mergeCell ref="I74:J74"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J26:J44" type="custom">
-      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" error="Un code corps comprend trois chiffres." errorTitle="Mauvais code corps" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I25:I44" type="custom">
       <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(I25,"[0-9]{3}"))</formula1>
       <formula2>0</formula2>
@@ -2062,10 +2058,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C64:C67 F64:F67" type="decimal">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J25" type="custom">
-      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="C’est “M.” ou “Mme”. Pas d’abbérviation étrange." errorTitle="M. ou Mme" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B48:B55" type="custom">
@@ -2108,6 +2100,14 @@
       <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(A64,"^[A-Z].* \(.*\)$"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J25:J30 J32:J44" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J25,"^[0-9]{7}[A-Z]$"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Exemple de RNE : 1234567G" errorTitle="Saisissez un RNE" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J31" type="custom">
+      <formula1>ISTEXT(_xlfn.ORG.LIBREOFFICE.REGEX(J31,"^[0-9]{7}[A-Z]$"))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
